--- a/biology/Zoologie/Cephalotes_patellaris/Cephalotes_patellaris.xlsx
+++ b/biology/Zoologie/Cephalotes_patellaris/Cephalotes_patellaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes patellaris, est une espèce de fourmis arboricoles du genre Cephalotes[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes patellaris, est une espèce de fourmis arboricoles du genre Cephalotes,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été détectée au Brésil, depuis l'État de l'Rio Grande do Sul au sud, jusqu'au Tocantins au nord, ainsi qu'en Bolivie[3]. Il est très probable que l'endémisme de cette espèce dépasse ces états.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été détectée au Brésil, depuis l'État de l'Rio Grande do Sul au sud, jusqu'au Tocantins au nord, ainsi qu'en Bolivie. Il est très probable que l'endémisme de cette espèce dépasse ces états.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Diversity and Adaptation in the Ant Genus Cephalotes Past and Present (Hymenoptera, Formicidae)
 </t>
